--- a/API_py_scripts/case/myapidata.xlsx
+++ b/API_py_scripts/case/myapidata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A7CD3A-1E01-44B5-B84E-7489C64B030E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC804E-C470-445F-9493-DC7F3C885A1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,9 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>checkCode=4436&amp;mobilePhone=18301212965</t>
-  </si>
-  <si>
     <t xml:space="preserve"> dev01.bdhlan.com:8080/bdhsystem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +140,14 @@
   </si>
   <si>
     <t>dev01.bdhlan.com:8080/bdhsystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode=9331&amp;mobilePhone=18301212965</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded;charset=utf-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +477,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -480,7 +485,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
@@ -504,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -533,19 +538,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -553,22 +558,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -576,16 +584,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -596,28 +607,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
